--- a/Program/Other/Sharepoint上傳用/沒轉的欄位/LA$JLNP.xlsx
+++ b/Program/Other/Sharepoint上傳用/沒轉的欄位/LA$JLNP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\99-資料轉換進度\沒轉的欄位\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE56DA5-3CFF-4DAC-A4AE-5B49BCAE6297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2721B90-FC9A-4D46-A43D-4255A333CC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$X$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
   <si>
     <t>LA$JLNP</t>
   </si>
@@ -324,6 +324,22 @@
   </si>
   <si>
     <t>彙總傳票批號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式不同的欄位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統為文字格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統長度為11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統長度為5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -703,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -717,25 +733,26 @@
     <col min="4" max="4" width="4.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="1.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.25" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="34.375" style="2" collapsed="1"/>
-    <col min="13" max="13" width="12" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="34.375" style="2" collapsed="1"/>
-    <col min="19" max="19" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="16384" width="34.375" style="2"/>
+    <col min="7" max="7" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.25" style="2" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="34.375" style="2" collapsed="1"/>
+    <col min="14" max="14" width="12" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="34.375" style="2" collapsed="1"/>
+    <col min="20" max="20" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="16384" width="34.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,8 +765,11 @@
       <c r="F1" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -765,23 +785,26 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
+      <c r="G2" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -797,53 +820,53 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="T3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -859,38 +882,38 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="N4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -906,23 +929,26 @@
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
+      <c r="G5" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -938,23 +964,23 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -970,23 +996,23 @@
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1002,23 +1028,23 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1034,50 +1060,50 @@
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="N9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -1093,53 +1119,53 @@
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="N10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="T10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="W10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -1155,23 +1181,26 @@
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>6</v>
+      <c r="G11" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>80</v>
       </c>
@@ -1187,20 +1216,23 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>6</v>
+      <c r="G12" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>83</v>
       </c>
@@ -1220,7 +1252,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -1236,23 +1268,23 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>59</v>
       </c>
@@ -1268,23 +1300,23 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>85</v>
       </c>
@@ -1304,7 +1336,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
@@ -1320,23 +1352,23 @@
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>86</v>
       </c>
@@ -1356,7 +1388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>87</v>
       </c>
@@ -1372,20 +1404,20 @@
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>70</v>
       </c>
@@ -1401,9 +1433,12 @@
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F20" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
